--- a/Optymalizacja1/daneCSV/PLIK_KONCOWY.xlsx
+++ b/Optymalizacja1/daneCSV/PLIK_KONCOWY.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FE172B-4218-4234-A1FF-5B3F55A466B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24789EEF-DFF8-47AA-A410-AD6FAB5FA395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="35">
   <si>
     <t>Współczynnik ekspansji</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Nr iteracji</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>t</t>
@@ -154,9 +151,6 @@
   </si>
   <si>
     <t>Metda Fibonacciego</t>
-  </si>
-  <si>
-    <t>tego chyba nie trzeba?</t>
   </si>
 </sst>
 </file>
@@ -1088,6 +1082,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1127,23 +1143,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1178,17 +1188,23 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1216,28 +1232,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1545,7 +1539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D283" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D282" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I305" sqref="I305"/>
     </sheetView>
   </sheetViews>
@@ -1558,33 +1552,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="72" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>1</v>
@@ -1608,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="71" t="s">
         <v>8</v>
@@ -1617,14 +1611,14 @@
         <v>9</v>
       </c>
       <c r="M2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="79">
+      <c r="A3" s="89">
         <v>2</v>
       </c>
       <c r="B3" s="12">
@@ -1661,14 +1655,14 @@
         <v>1.9197917182572799E-3</v>
       </c>
       <c r="M3" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3" s="46">
         <v>9.7974275159267901</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="80"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1703,14 +1697,14 @@
         <v>-0.28781484226457799</v>
       </c>
       <c r="M4" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" s="45">
         <v>54.623676080468798</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="80"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1745,14 +1739,14 @@
         <v>3.0155010099343899E-6</v>
       </c>
       <c r="M5" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" s="46">
         <v>-0.38829763133057998</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="80"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1787,14 +1781,14 @@
         <v>-7.1560503946001807E-18</v>
       </c>
       <c r="M6" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N6" s="45">
         <v>7.4682921589080196E-9</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="80"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1829,14 +1823,14 @@
         <v>8.6678200149600607E-3</v>
       </c>
       <c r="M7" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N7" s="46">
         <v>49.5214046351619</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -1865,14 +1859,14 @@
         <v>51.999993706951599</v>
       </c>
       <c r="K8" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L8" s="45"/>
       <c r="M8" s="45"/>
       <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="80"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1901,14 +1895,14 @@
         <v>60.999993706951599</v>
       </c>
       <c r="K9" s="53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" s="46"/>
       <c r="M9" s="46"/>
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="80"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -1937,14 +1931,14 @@
         <v>62.748180702160099</v>
       </c>
       <c r="K10" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
       <c r="N10" s="45"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="80"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1979,14 +1973,14 @@
         <v>4.6812512137897897E-14</v>
       </c>
       <c r="M11" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N11" s="46">
         <v>-4.8383710517376001E-5</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="80"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -2021,14 +2015,14 @@
         <v>1.7573709714063799E-11</v>
       </c>
       <c r="M12" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N12" s="45">
         <v>-9.3738244230419897E-4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="80"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -2057,14 +2051,14 @@
         <v>61.999993706951599</v>
       </c>
       <c r="K13" s="53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13" s="46"/>
       <c r="M13" s="46"/>
       <c r="N13" s="46"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="80"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -2099,14 +2093,14 @@
         <v>-0.921147605213125</v>
       </c>
       <c r="M14" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N14" s="45">
         <v>62.755009763756</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -2141,14 +2135,14 @@
         <v>-7.1571658351869908E-18</v>
       </c>
       <c r="M15" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N15" s="46">
         <v>2.8460307027753301E-13</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -2183,14 +2177,14 @@
         <v>3.6149215920195202E-7</v>
       </c>
       <c r="M16" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N16" s="45">
         <v>0.13444183857907099</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="80"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -2225,14 +2219,14 @@
         <v>-0.92050577140216505</v>
       </c>
       <c r="M17" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N17" s="46">
         <v>62.541240331159898</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="80"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -2267,14 +2261,14 @@
         <v>-0.618614014095209</v>
       </c>
       <c r="M18" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N18" s="45">
         <v>67.579140572628802</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="80"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -2309,14 +2303,14 @@
         <v>-7.1571658301120606E-18</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N19" s="46">
         <v>1.6154411591940699E-11</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="80"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -2351,14 +2345,14 @@
         <v>1.5323487602990799E-4</v>
       </c>
       <c r="M20" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N20" s="45">
         <v>-2.7679855132379898</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="80"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -2393,14 +2387,14 @@
         <v>5.4319317368121603E-9</v>
       </c>
       <c r="M21" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N21" s="46">
         <v>-1.64801877171083E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="80"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -2435,14 +2429,14 @@
         <v>-7.1570688940251193E-18</v>
       </c>
       <c r="M22" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N22" s="45">
         <v>2.20182837814245E-9</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="80"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -2477,14 +2471,14 @@
         <v>-7.1570631746567193E-18</v>
       </c>
       <c r="M23" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N23" s="46">
         <v>2.2658432012933898E-9</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -2519,14 +2513,14 @@
         <v>4.1369447475742603E-17</v>
       </c>
       <c r="M24" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N24" s="45">
         <v>1.55766856745186E-6</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="80"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -2561,14 +2555,14 @@
         <v>1.6987179018458001E-6</v>
       </c>
       <c r="M25" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N25" s="46">
         <v>0.29143763499727598</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="80"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -2602,7 +2596,7 @@
       <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="80"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -2637,14 +2631,14 @@
         <v>-7.1571651203195498E-18</v>
       </c>
       <c r="M27" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N27" s="46">
         <v>1.89284030837448E-10</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="80"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -2679,14 +2673,14 @@
         <v>-4.9607796490059702E-18</v>
       </c>
       <c r="M28" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N28" s="45">
         <v>-3.3138974076415301E-7</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="80"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -2721,14 +2715,14 @@
         <v>1.46996243647754E-6</v>
       </c>
       <c r="M29" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N29" s="46">
         <v>-0.27110537033436199</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="80"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -2763,14 +2757,14 @@
         <v>-7.1571658351869908E-18</v>
       </c>
       <c r="M30" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N30" s="45">
         <v>2.8460307027753301E-13</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="80"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -2804,7 +2798,7 @@
       <c r="N31" s="46"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="80"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -2839,14 +2833,14 @@
         <v>-7.1571616010348598E-18</v>
       </c>
       <c r="M32" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N32" s="45">
         <v>4.6034180198013001E-10</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="80"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -2881,14 +2875,14 @@
         <v>-0.84838872725943104</v>
       </c>
       <c r="M33" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N33" s="46">
         <v>60.502396582306197</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="80"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -2923,14 +2917,14 @@
         <v>1.6206606822637401E-17</v>
       </c>
       <c r="M34" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N34" s="45">
         <v>-1.0808275287230301E-6</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="80"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -2965,14 +2959,14 @@
         <v>-7.1566249937625302E-18</v>
       </c>
       <c r="M35" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N35" s="46">
         <v>5.2004240016912698E-9</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="80"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -3007,14 +3001,14 @@
         <v>-0.919539694773026</v>
       </c>
       <c r="M36" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N36" s="45">
         <v>62.420628514613597</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="80"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -3048,7 +3042,7 @@
       <c r="N37" s="46"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="80"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -3082,7 +3076,7 @@
       <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="80"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -3117,14 +3111,14 @@
         <v>1.51808666723924E-2</v>
       </c>
       <c r="M39" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N39" s="46">
         <v>49.248842615793002</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="80"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -3158,7 +3152,7 @@
       <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="80"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -3193,14 +3187,14 @@
         <v>-7.1571658341933696E-18</v>
       </c>
       <c r="M41" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N41" s="46">
         <v>7.2737511252425699E-12</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="80"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -3235,14 +3229,14 @@
         <v>4.6812512137897897E-14</v>
       </c>
       <c r="M42" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N42" s="45">
         <v>-4.8383710517376001E-5</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="80"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -3277,14 +3271,14 @@
         <v>-0.92048624244838395</v>
       </c>
       <c r="M43" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N43" s="46">
         <v>62.958141645375697</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="80"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -3319,14 +3313,14 @@
         <v>4.8848697696076399E-5</v>
       </c>
       <c r="M44" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N44" s="45">
         <v>-1.56282912847306</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="80"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -3361,14 +3355,14 @@
         <v>-7.1571656112973605E-18</v>
       </c>
       <c r="M45" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N45" s="46">
         <v>1.06028848735713E-10</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="80"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -3403,14 +3397,14 @@
         <v>-4.9607796490059702E-18</v>
       </c>
       <c r="M46" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N46" s="45">
         <v>-3.3138974076415301E-7</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="80"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -3445,14 +3439,14 @@
         <v>-0.91364032413277496</v>
       </c>
       <c r="M47" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N47" s="46">
         <v>62.039249655292899</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="80"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -3487,14 +3481,14 @@
         <v>2.8321287875052201E-5</v>
       </c>
       <c r="M48" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N48" s="45">
         <v>-1.1899850392978399</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="80"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -3529,14 +3523,14 @@
         <v>1.7573709714063799E-11</v>
       </c>
       <c r="M49" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N49" s="46">
         <v>-9.3738244230419897E-4</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="80"/>
+      <c r="A50" s="90"/>
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -3570,7 +3564,7 @@
       <c r="N50" s="45"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="80"/>
+      <c r="A51" s="90"/>
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -3605,14 +3599,14 @@
         <v>-7.1571658350362598E-18</v>
       </c>
       <c r="M51" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N51" s="46">
         <v>2.9711908007897499E-12</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="80"/>
+      <c r="A52" s="90"/>
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -3647,14 +3641,14 @@
         <v>-7.1571651203195498E-18</v>
       </c>
       <c r="M52" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N52" s="45">
         <v>1.89284030837448E-10</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="80"/>
+      <c r="A53" s="90"/>
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -3689,14 +3683,14 @@
         <v>-0.874088160898152</v>
       </c>
       <c r="M53" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N53" s="46">
         <v>64.534442896458401</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="80"/>
+      <c r="A54" s="90"/>
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -3707,7 +3701,7 @@
         <v>-1</v>
       </c>
       <c r="E54" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F54" s="57">
         <v>9</v>
@@ -3731,14 +3725,14 @@
         <v>-7.1571658351869908E-18</v>
       </c>
       <c r="M54" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N54" s="45">
         <v>2.8460307027753301E-13</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="80"/>
+      <c r="A55" s="90"/>
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -3773,14 +3767,14 @@
         <v>-7.1561433053285492E-18</v>
       </c>
       <c r="M55" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N55" s="46">
         <v>7.1505040691370598E-9</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="80"/>
+      <c r="A56" s="90"/>
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -3814,7 +3808,7 @@
       <c r="N56" s="45"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="80"/>
+      <c r="A57" s="90"/>
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -3849,14 +3843,14 @@
         <v>1.51808666723924E-2</v>
       </c>
       <c r="M57" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N57" s="46">
         <v>49.248842615793002</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="80"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="1">
         <v>56</v>
       </c>
@@ -3891,14 +3885,14 @@
         <v>5.4319317368121603E-9</v>
       </c>
       <c r="M58" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N58" s="45">
         <v>-1.64801877171083E-2</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="80"/>
+      <c r="A59" s="90"/>
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -3933,14 +3927,14 @@
         <v>-7.1571645635373706E-18</v>
       </c>
       <c r="M59" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N59" s="46">
         <v>2.5238053152370799E-10</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="80"/>
+      <c r="A60" s="90"/>
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -3975,14 +3969,14 @@
         <v>9.5906520171814008E-6</v>
       </c>
       <c r="M60" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N60" s="45">
         <v>-0.69248292459758098</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="80"/>
+      <c r="A61" s="90"/>
       <c r="B61" s="1">
         <v>59</v>
       </c>
@@ -4016,7 +4010,7 @@
       <c r="N61" s="46"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="80"/>
+      <c r="A62" s="90"/>
       <c r="B62" s="1">
         <v>60</v>
       </c>
@@ -4051,14 +4045,14 @@
         <v>-7.1571616010348598E-18</v>
       </c>
       <c r="M62" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N62" s="45">
         <v>4.6034180198013001E-10</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="80"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="1">
         <v>61</v>
       </c>
@@ -4093,14 +4087,14 @@
         <v>1.20613799877181E-4</v>
       </c>
       <c r="M63" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N63" s="46">
         <v>-2.45574632115353</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="80"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="1">
         <v>62</v>
       </c>
@@ -4135,14 +4129,14 @@
         <v>3.0155010099343899E-6</v>
       </c>
       <c r="M64" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N64" s="45">
         <v>-0.38829763133057998</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="80"/>
+      <c r="A65" s="90"/>
       <c r="B65" s="1">
         <v>63</v>
       </c>
@@ -4177,14 +4171,14 @@
         <v>2.7675721385497998E-4</v>
       </c>
       <c r="M65" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N65" s="46">
         <v>-3.7199275117599999</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="80"/>
+      <c r="A66" s="90"/>
       <c r="B66" s="1">
         <v>64</v>
       </c>
@@ -4219,14 +4213,14 @@
         <v>-7.1571658351707498E-18</v>
       </c>
       <c r="M66" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N66" s="45">
         <v>1.12887531755631E-12</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="80"/>
+      <c r="A67" s="90"/>
       <c r="B67" s="1">
         <v>65</v>
       </c>
@@ -4261,14 +4255,14 @@
         <v>-7.1571658351707498E-18</v>
       </c>
       <c r="M67" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N67" s="46">
         <v>1.1288753175557201E-12</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="80"/>
+      <c r="A68" s="90"/>
       <c r="B68" s="1">
         <v>66</v>
       </c>
@@ -4303,14 +4297,14 @@
         <v>1.8690732009431799E-16</v>
       </c>
       <c r="M68" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N68" s="45">
         <v>-3.11499966222611E-6</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="80"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -4344,7 +4338,7 @@
       <c r="N69" s="46"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="80"/>
+      <c r="A70" s="90"/>
       <c r="B70" s="1">
         <v>68</v>
       </c>
@@ -4379,14 +4373,14 @@
         <v>-7.1571594201637293E-18</v>
       </c>
       <c r="M70" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N70" s="45">
         <v>5.6657383199062797E-10</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="80"/>
+      <c r="A71" s="90"/>
       <c r="B71" s="1">
         <v>69</v>
       </c>
@@ -4421,14 +4415,14 @@
         <v>2.4002158660616101E-4</v>
       </c>
       <c r="M71" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N71" s="46">
         <v>-3.4642573995458301</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="80"/>
+      <c r="A72" s="90"/>
       <c r="B72" s="1">
         <v>70</v>
       </c>
@@ -4463,14 +4457,14 @@
         <v>-7.1568015780030196E-18</v>
       </c>
       <c r="M72" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N72" s="45">
         <v>4.2678775061270604E-9</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="80"/>
+      <c r="A73" s="90"/>
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -4505,14 +4499,14 @@
         <v>5.6384432392164899E-7</v>
       </c>
       <c r="M73" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N73" s="46">
         <v>-0.16790537869994501</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="80"/>
+      <c r="A74" s="90"/>
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -4547,14 +4541,14 @@
         <v>3.24312214254585E-6</v>
       </c>
       <c r="M74" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N74" s="45">
         <v>-0.40268611489286199</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="80"/>
+      <c r="A75" s="90"/>
       <c r="B75" s="1">
         <v>73</v>
       </c>
@@ -4589,14 +4583,14 @@
         <v>-2.90950530760756E-2</v>
       </c>
       <c r="M75" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N75" s="46">
         <v>50.704323264565602</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="80"/>
+      <c r="A76" s="90"/>
       <c r="B76" s="1">
         <v>74</v>
       </c>
@@ -4631,14 +4625,14 @@
         <v>-7.1571657992018695E-18</v>
       </c>
       <c r="M76" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N76" s="45">
         <v>4.2642524752923799E-11</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="80"/>
+      <c r="A77" s="90"/>
       <c r="B77" s="1">
         <v>75</v>
       </c>
@@ -4673,14 +4667,14 @@
         <v>-0.92114749615976599</v>
       </c>
       <c r="M77" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N77" s="46">
         <v>62.755522266007702</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="80"/>
+      <c r="A78" s="90"/>
       <c r="B78" s="1">
         <v>76</v>
       </c>
@@ -4715,14 +4709,14 @@
         <v>-0.84838872725943104</v>
       </c>
       <c r="M78" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N78" s="45">
         <v>60.502396582306197</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="80"/>
+      <c r="A79" s="90"/>
       <c r="B79" s="1">
         <v>77</v>
       </c>
@@ -4757,14 +4751,14 @@
         <v>-0.64566447645697</v>
       </c>
       <c r="M79" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N79" s="46">
         <v>58.115991969248199</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="80"/>
+      <c r="A80" s="90"/>
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -4799,14 +4793,14 @@
         <v>-7.1569827591731397E-18</v>
       </c>
       <c r="M80" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N80" s="45">
         <v>-3.0253000137978502E-9</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="80"/>
+      <c r="A81" s="90"/>
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -4841,14 +4835,14 @@
         <v>-7.1571377449357394E-18</v>
       </c>
       <c r="M81" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N81" s="46">
         <v>1.18534617849254E-9</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="80"/>
+      <c r="A82" s="90"/>
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -4883,14 +4877,14 @@
         <v>1.46996243647754E-6</v>
       </c>
       <c r="M82" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N82" s="45">
         <v>-0.27110537033436199</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="80"/>
+      <c r="A83" s="90"/>
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -4924,7 +4918,7 @@
       <c r="N83" s="46"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="80"/>
+      <c r="A84" s="90"/>
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -4958,7 +4952,7 @@
       <c r="N84" s="45"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="80"/>
+      <c r="A85" s="90"/>
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -4993,14 +4987,14 @@
         <v>1.98815947480373E-10</v>
       </c>
       <c r="M85" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N85" s="46">
         <v>-3.1529030639177299E-3</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="80"/>
+      <c r="A86" s="90"/>
       <c r="B86" s="1">
         <v>84</v>
       </c>
@@ -5034,7 +5028,7 @@
       <c r="N86" s="45"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="80"/>
+      <c r="A87" s="90"/>
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -5069,14 +5063,14 @@
         <v>8.6678200149600607E-3</v>
       </c>
       <c r="M87" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N87" s="46">
         <v>49.5214046351619</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="80"/>
+      <c r="A88" s="90"/>
       <c r="B88" s="1">
         <v>86</v>
       </c>
@@ -5111,14 +5105,14 @@
         <v>-7.1571377449357394E-18</v>
       </c>
       <c r="M88" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N88" s="45">
         <v>1.18534617849254E-9</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="80"/>
+      <c r="A89" s="90"/>
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -5153,14 +5147,14 @@
         <v>-7.1571657992018695E-18</v>
       </c>
       <c r="M89" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N89" s="46">
         <v>4.2642524752923799E-11</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="80"/>
+      <c r="A90" s="90"/>
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -5195,14 +5189,14 @@
         <v>-7.1561433053285492E-18</v>
       </c>
       <c r="M90" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N90" s="45">
         <v>7.1505040691370598E-9</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="80"/>
+      <c r="A91" s="90"/>
       <c r="B91" s="1">
         <v>89</v>
       </c>
@@ -5237,14 +5231,14 @@
         <v>-7.1571377449357394E-18</v>
       </c>
       <c r="M91" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N91" s="46">
         <v>1.18534617849254E-9</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="80"/>
+      <c r="A92" s="90"/>
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -5279,14 +5273,14 @@
         <v>-7.1571645635373706E-18</v>
       </c>
       <c r="M92" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N92" s="45">
         <v>2.5238053152370799E-10</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="80"/>
+      <c r="A93" s="90"/>
       <c r="B93" s="1">
         <v>91</v>
       </c>
@@ -5321,14 +5315,14 @@
         <v>6.1963458020431999E-11</v>
       </c>
       <c r="M93" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N93" s="46">
         <v>-1.76016284987759E-3</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="80"/>
+      <c r="A94" s="90"/>
       <c r="B94" s="1">
         <v>92</v>
       </c>
@@ -5363,14 +5357,14 @@
         <v>4.6812512137897897E-14</v>
       </c>
       <c r="M94" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N94" s="45">
         <v>-4.8383710517376001E-5</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="80"/>
+      <c r="A95" s="90"/>
       <c r="B95" s="1">
         <v>93</v>
       </c>
@@ -5405,14 +5399,14 @@
         <v>1.08287452888975E-12</v>
       </c>
       <c r="M95" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N95" s="46">
         <v>-2.32688814080425E-4</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="80"/>
+      <c r="A96" s="90"/>
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -5447,14 +5441,14 @@
         <v>-7.1571658351867997E-18</v>
       </c>
       <c r="M96" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N96" s="45">
         <v>3.5177592015400298E-13</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="80"/>
+      <c r="A97" s="90"/>
       <c r="B97" s="1">
         <v>95</v>
       </c>
@@ -5489,14 +5483,14 @@
         <v>-7.1571658351869599E-18</v>
       </c>
       <c r="M97" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N97" s="46">
         <v>3.0030141423328301E-13</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="80"/>
+      <c r="A98" s="90"/>
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -5531,14 +5525,14 @@
         <v>5.7553058081742399E-10</v>
       </c>
       <c r="M98" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N98" s="45">
         <v>-5.3643759559081098E-3</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="80"/>
+      <c r="A99" s="90"/>
       <c r="B99" s="1">
         <v>97</v>
       </c>
@@ -5573,14 +5567,14 @@
         <v>1.90362589356878E-7</v>
       </c>
       <c r="M99" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N99" s="46">
         <v>-9.7560901329172098E-2</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="80"/>
+      <c r="A100" s="90"/>
       <c r="B100" s="1">
         <v>98</v>
       </c>
@@ -5615,14 +5609,14 @@
         <v>-0.912408298960804</v>
       </c>
       <c r="M100" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N100" s="45">
         <v>63.511976618553803</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="80"/>
+      <c r="A101" s="90"/>
       <c r="B101" s="1">
         <v>99</v>
       </c>
@@ -5657,14 +5651,14 @@
         <v>-9.2755246173966105E-2</v>
       </c>
       <c r="M101" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N101" s="46">
         <v>52.033414954884002</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="81"/>
+      <c r="A102" s="91"/>
       <c r="B102" s="3">
         <v>100</v>
       </c>
@@ -5699,14 +5693,14 @@
         <v>-7.1571651203195498E-18</v>
       </c>
       <c r="M102" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N102" s="51">
         <v>1.89284030837448E-10</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="82">
+      <c r="A103" s="92">
         <v>1.5</v>
       </c>
       <c r="B103" s="4">
@@ -5743,14 +5737,14 @@
         <v>-0.905307515457485</v>
       </c>
       <c r="M103" s="49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N103" s="49">
         <v>61.716036786433698</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="80"/>
+      <c r="A104" s="90"/>
       <c r="B104" s="1">
         <v>2</v>
       </c>
@@ -5785,14 +5779,14 @@
         <v>-0.73864088504110004</v>
       </c>
       <c r="M104" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N104" s="45">
         <v>59.08202135114</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="80"/>
+      <c r="A105" s="90"/>
       <c r="B105" s="1">
         <v>3</v>
       </c>
@@ -5827,14 +5821,14 @@
         <v>-7.1571658351842405E-18</v>
       </c>
       <c r="M105" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N105" s="46">
         <v>6.0308862455640301E-13</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="80"/>
+      <c r="A106" s="90"/>
       <c r="B106" s="1">
         <v>4</v>
       </c>
@@ -5869,14 +5863,14 @@
         <v>-7.1571658343980698E-18</v>
       </c>
       <c r="M106" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N106" s="45">
         <v>6.5056870741356902E-12</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="80"/>
+      <c r="A107" s="90"/>
       <c r="B107" s="1">
         <v>5</v>
       </c>
@@ -5911,14 +5905,14 @@
         <v>-7.1571657802399598E-18</v>
       </c>
       <c r="M107" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N107" s="46">
         <v>5.2640085757457897E-11</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="80"/>
+      <c r="A108" s="90"/>
       <c r="B108" s="1">
         <v>6</v>
       </c>
@@ -5953,14 +5947,14 @@
         <v>1.27510402436149E-7</v>
       </c>
       <c r="M108" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N108" s="45">
         <v>7.9846854178502805E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="80"/>
+      <c r="A109" s="90"/>
       <c r="B109" s="1">
         <v>7</v>
       </c>
@@ -5995,14 +5989,14 @@
         <v>-7.1571653802828001E-18</v>
       </c>
       <c r="M109" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N109" s="46">
         <v>1.5104002035175601E-10</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="80"/>
+      <c r="A110" s="90"/>
       <c r="B110" s="1">
         <v>8</v>
       </c>
@@ -6037,14 +6031,14 @@
         <v>-0.74027166213576401</v>
       </c>
       <c r="M110" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N110" s="45">
         <v>59.100150495313798</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="80"/>
+      <c r="A111" s="90"/>
       <c r="B111" s="1">
         <v>9</v>
       </c>
@@ -6079,14 +6073,14 @@
         <v>-0.69155399835250897</v>
       </c>
       <c r="M111" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N111" s="46">
         <v>58.5787787440945</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" s="80"/>
+      <c r="A112" s="90"/>
       <c r="B112" s="1">
         <v>10</v>
       </c>
@@ -6121,14 +6115,14 @@
         <v>8.4956757136023896E-7</v>
       </c>
       <c r="M112" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N112" s="45">
         <v>-0.206102834935107</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="80"/>
+      <c r="A113" s="90"/>
       <c r="B113" s="1">
         <v>11</v>
       </c>
@@ -6163,14 +6157,14 @@
         <v>3.2563290999233702E-5</v>
       </c>
       <c r="M113" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N113" s="46">
         <v>-1.27599551330001</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="80"/>
+      <c r="A114" s="90"/>
       <c r="B114" s="1">
         <v>12</v>
       </c>
@@ -6205,14 +6199,14 @@
         <v>-7.15716583489102E-18</v>
       </c>
       <c r="M114" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N114" s="45">
         <v>4.07256480081732E-12</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="80"/>
+      <c r="A115" s="90"/>
       <c r="B115" s="1">
         <v>13</v>
       </c>
@@ -6247,14 +6241,14 @@
         <v>3.4474065773308101E-10</v>
       </c>
       <c r="M115" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N115" s="46">
         <v>-4.15175062385135E-3</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="80"/>
+      <c r="A116" s="90"/>
       <c r="B116" s="1">
         <v>14</v>
       </c>
@@ -6289,14 +6283,14 @@
         <v>3.4474065773308101E-10</v>
       </c>
       <c r="M116" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N116" s="45">
         <v>-4.15175062385135E-3</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="80"/>
+      <c r="A117" s="90"/>
       <c r="B117" s="1">
         <v>15</v>
       </c>
@@ -6331,14 +6325,14 @@
         <v>-7.1571260982877499E-18</v>
       </c>
       <c r="M117" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N117" s="46">
         <v>1.40977973138109E-9</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="80"/>
+      <c r="A118" s="90"/>
       <c r="B118" s="1">
         <v>16</v>
       </c>
@@ -6373,14 +6367,14 @@
         <v>-7.15632108503493E-18</v>
       </c>
       <c r="M118" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N118" s="45">
         <v>6.4992638246004901E-9</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="80"/>
+      <c r="A119" s="90"/>
       <c r="B119" s="1">
         <v>17</v>
       </c>
@@ -6415,14 +6409,14 @@
         <v>-0.91881352996940402</v>
       </c>
       <c r="M119" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N119" s="46">
         <v>63.142534719344901</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="80"/>
+      <c r="A120" s="90"/>
       <c r="B120" s="1">
         <v>18</v>
       </c>
@@ -6457,14 +6451,14 @@
         <v>-0.92110900107388005</v>
       </c>
       <c r="M120" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N120" s="45">
         <v>62.697015016671998</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="80"/>
+      <c r="A121" s="90"/>
       <c r="B121" s="1">
         <v>19</v>
       </c>
@@ -6499,14 +6493,14 @@
         <v>-7.1571658340411395E-18</v>
       </c>
       <c r="M121" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N121" s="46">
         <v>7.7944182105823001E-12</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="80"/>
+      <c r="A122" s="90"/>
       <c r="B122" s="1">
         <v>20</v>
       </c>
@@ -6541,14 +6535,14 @@
         <v>6.15084572873333E-17</v>
       </c>
       <c r="M122" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N122" s="45">
         <v>-1.85291131004061E-6</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="80"/>
+      <c r="A123" s="90"/>
       <c r="B123" s="1">
         <v>21</v>
       </c>
@@ -6583,14 +6577,14 @@
         <v>-6.5815759126987703E-18</v>
       </c>
       <c r="M123" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N123" s="46">
         <v>-1.69644981757098E-7</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="80"/>
+      <c r="A124" s="90"/>
       <c r="B124" s="1">
         <v>22</v>
       </c>
@@ -6625,14 +6619,14 @@
         <v>-7.1571647627755598E-18</v>
       </c>
       <c r="M124" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N124" s="45">
         <v>2.3178602163747701E-10</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="80"/>
+      <c r="A125" s="90"/>
       <c r="B125" s="1">
         <v>23</v>
       </c>
@@ -6667,14 +6661,14 @@
         <v>1.39531813504328E-15</v>
       </c>
       <c r="M125" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N125" s="46">
         <v>-8.3739931501151301E-6</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="80"/>
+      <c r="A126" s="90"/>
       <c r="B126" s="1">
         <v>24</v>
       </c>
@@ -6709,14 +6703,14 @@
         <v>-0.921131723133637</v>
       </c>
       <c r="M126" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N126" s="45">
         <v>62.781411158914104</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="80"/>
+      <c r="A127" s="90"/>
       <c r="B127" s="1">
         <v>25</v>
       </c>
@@ -6751,14 +6745,14 @@
         <v>-7.1571657802399598E-18</v>
       </c>
       <c r="M127" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N127" s="46">
         <v>5.2640085757457897E-11</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="80"/>
+      <c r="A128" s="90"/>
       <c r="B128" s="1">
         <v>26</v>
       </c>
@@ -6793,14 +6787,14 @@
         <v>-7.1570986671268806E-18</v>
       </c>
       <c r="M128" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N128" s="45">
         <v>1.8328194604896901E-9</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" s="80"/>
+      <c r="A129" s="90"/>
       <c r="B129" s="1">
         <v>27</v>
       </c>
@@ -6835,14 +6829,14 @@
         <v>4.0764145530090899E-5</v>
       </c>
       <c r="M129" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N129" s="46">
         <v>-1.4276579690194</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="80"/>
+      <c r="A130" s="90"/>
       <c r="B130" s="1">
         <v>28</v>
       </c>
@@ -6877,14 +6871,14 @@
         <v>2.7898199614061202E-17</v>
       </c>
       <c r="M130" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N130" s="45">
         <v>-1.32392132587177E-6</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="80"/>
+      <c r="A131" s="90"/>
       <c r="B131" s="1">
         <v>29</v>
       </c>
@@ -6918,7 +6912,7 @@
       <c r="N131" s="46"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="80"/>
+      <c r="A132" s="90"/>
       <c r="B132" s="1">
         <v>30</v>
       </c>
@@ -6953,14 +6947,14 @@
         <v>-7.1571658351824702E-18</v>
       </c>
       <c r="M132" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N132" s="45">
         <v>7.0392012158214804E-13</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="80"/>
+      <c r="A133" s="90"/>
       <c r="B133" s="1">
         <v>31</v>
       </c>
@@ -6994,7 +6988,7 @@
       <c r="N133" s="46"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A134" s="80"/>
+      <c r="A134" s="90"/>
       <c r="B134" s="1">
         <v>32</v>
       </c>
@@ -7029,14 +7023,14 @@
         <v>-7.1571658351842405E-18</v>
       </c>
       <c r="M134" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N134" s="45">
         <v>6.0308862455640301E-13</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A135" s="80"/>
+      <c r="A135" s="90"/>
       <c r="B135" s="1">
         <v>33</v>
       </c>
@@ -7071,14 +7065,14 @@
         <v>1.12744998387522E-10</v>
       </c>
       <c r="M135" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N135" s="46">
         <v>-2.37428942552677E-3</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A136" s="80"/>
+      <c r="A136" s="90"/>
       <c r="B136" s="1">
         <v>34</v>
       </c>
@@ -7113,14 +7107,14 @@
         <v>-0.92114830226267896</v>
       </c>
       <c r="M136" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N136" s="45">
         <v>62.748644684477298</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137" s="80"/>
+      <c r="A137" s="90"/>
       <c r="B137" s="1">
         <v>35</v>
       </c>
@@ -7154,7 +7148,7 @@
       <c r="N137" s="46"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A138" s="80"/>
+      <c r="A138" s="90"/>
       <c r="B138" s="1">
         <v>36</v>
       </c>
@@ -7189,14 +7183,14 @@
         <v>3.4251435727599198E-15</v>
       </c>
       <c r="M138" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N138" s="45">
         <v>-1.3100192022969399E-5</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A139" s="80"/>
+      <c r="A139" s="90"/>
       <c r="B139" s="1">
         <v>37</v>
       </c>
@@ -7231,14 +7225,14 @@
         <v>-0.63704506476034795</v>
       </c>
       <c r="M139" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N139" s="46">
         <v>58.031201558356997</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A140" s="80"/>
+      <c r="A140" s="90"/>
       <c r="B140" s="1">
         <v>38</v>
       </c>
@@ -7273,14 +7267,14 @@
         <v>-0.79833746118730498</v>
       </c>
       <c r="M140" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N140" s="45">
         <v>65.684071172933997</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A141" s="80"/>
+      <c r="A141" s="90"/>
       <c r="B141" s="1">
         <v>39</v>
       </c>
@@ -7315,14 +7309,14 @@
         <v>-7.1571657554318205E-18</v>
       </c>
       <c r="M141" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N141" s="46">
         <v>6.3373587361669801E-11</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A142" s="80"/>
+      <c r="A142" s="90"/>
       <c r="B142" s="1">
         <v>40</v>
       </c>
@@ -7357,14 +7351,14 @@
         <v>-7.1484629213098795E-18</v>
       </c>
       <c r="M142" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N142" s="45">
         <v>-2.0859921216239499E-8</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A143" s="80"/>
+      <c r="A143" s="90"/>
       <c r="B143" s="1">
         <v>41</v>
       </c>
@@ -7398,7 +7392,7 @@
       <c r="N143" s="46"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A144" s="80"/>
+      <c r="A144" s="90"/>
       <c r="B144" s="1">
         <v>42</v>
       </c>
@@ -7433,14 +7427,14 @@
         <v>-0.92112491875999902</v>
       </c>
       <c r="M144" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N144" s="45">
         <v>62.708713583939797</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A145" s="80"/>
+      <c r="A145" s="90"/>
       <c r="B145" s="1">
         <v>43</v>
       </c>
@@ -7475,14 +7469,14 @@
         <v>-7.1571658351384096E-18</v>
       </c>
       <c r="M145" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N145" s="46">
         <v>1.78510329636839E-12</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A146" s="80"/>
+      <c r="A146" s="90"/>
       <c r="B146" s="1">
         <v>44</v>
       </c>
@@ -7517,14 +7511,14 @@
         <v>2.5134703098785298E-19</v>
       </c>
       <c r="M146" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N146" s="45">
         <v>-6.0862580425988802E-7</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A147" s="80"/>
+      <c r="A147" s="90"/>
       <c r="B147" s="1">
         <v>45</v>
       </c>
@@ -7559,14 +7553,14 @@
         <v>-7.1571658351868105E-18</v>
       </c>
       <c r="M147" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N147" s="46">
         <v>3.5120131159311299E-13</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A148" s="80"/>
+      <c r="A148" s="90"/>
       <c r="B148" s="1">
         <v>46</v>
       </c>
@@ -7600,7 +7594,7 @@
       <c r="N148" s="45"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A149" s="80"/>
+      <c r="A149" s="90"/>
       <c r="B149" s="1">
         <v>47</v>
       </c>
@@ -7635,14 +7629,14 @@
         <v>-0.92114734115109898</v>
       </c>
       <c r="M149" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N149" s="46">
         <v>62.756194530257403</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A150" s="80"/>
+      <c r="A150" s="90"/>
       <c r="B150" s="1">
         <v>48</v>
       </c>
@@ -7676,7 +7670,7 @@
       <c r="N150" s="45"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A151" s="80"/>
+      <c r="A151" s="90"/>
       <c r="B151" s="1">
         <v>49</v>
       </c>
@@ -7711,14 +7705,14 @@
         <v>-7.1571658178742395E-18</v>
       </c>
       <c r="M151" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N151" s="46">
         <v>2.9646636624289098E-11</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A152" s="80"/>
+      <c r="A152" s="90"/>
       <c r="B152" s="1">
         <v>50</v>
       </c>
@@ -7753,14 +7747,14 @@
         <v>-0.92075913629220196</v>
       </c>
       <c r="M152" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N152" s="45">
         <v>62.9091545759049</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A153" s="80"/>
+      <c r="A153" s="90"/>
       <c r="B153" s="1">
         <v>51</v>
       </c>
@@ -7795,14 +7789,14 @@
         <v>-0.81580669566500097</v>
       </c>
       <c r="M153" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N153" s="46">
         <v>60.0222187952686</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A154" s="80"/>
+      <c r="A154" s="90"/>
       <c r="B154" s="1">
         <v>52</v>
       </c>
@@ -7836,7 +7830,7 @@
       <c r="N154" s="45"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A155" s="80"/>
+      <c r="A155" s="90"/>
       <c r="B155" s="1">
         <v>53</v>
       </c>
@@ -7871,14 +7865,14 @@
         <v>-0.91881352996940402</v>
       </c>
       <c r="M155" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N155" s="46">
         <v>63.142534719344901</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A156" s="80"/>
+      <c r="A156" s="90"/>
       <c r="B156" s="1">
         <v>54</v>
       </c>
@@ -7913,14 +7907,14 @@
         <v>2.2834768245705198E-9</v>
       </c>
       <c r="M156" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N156" s="45">
         <v>-1.0685216028775899E-2</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A157" s="80"/>
+      <c r="A157" s="90"/>
       <c r="B157" s="1">
         <v>55</v>
       </c>
@@ -7955,14 +7949,14 @@
         <v>-7.1571657554318205E-18</v>
       </c>
       <c r="M157" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N157" s="46">
         <v>6.3373587361669801E-11</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A158" s="80"/>
+      <c r="A158" s="90"/>
       <c r="B158" s="1">
         <v>56</v>
       </c>
@@ -7997,14 +7991,14 @@
         <v>3.7423607346826698E-5</v>
       </c>
       <c r="M158" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N158" s="45">
         <v>-1.3679109500772999</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A159" s="80"/>
+      <c r="A159" s="90"/>
       <c r="B159" s="1">
         <v>57</v>
       </c>
@@ -8039,14 +8033,14 @@
         <v>-7.1571452348843805E-18</v>
       </c>
       <c r="M159" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N159" s="46">
         <v>1.0151214628043199E-9</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A160" s="80"/>
+      <c r="A160" s="90"/>
       <c r="B160" s="1">
         <v>58</v>
       </c>
@@ -8081,14 +8075,14 @@
         <v>-7.1571657575356694E-18</v>
       </c>
       <c r="M160" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N160" s="45">
         <v>6.2535133466147798E-11</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A161" s="80"/>
+      <c r="A161" s="90"/>
       <c r="B161" s="1">
         <v>59</v>
       </c>
@@ -8122,7 +8116,7 @@
       <c r="N161" s="46"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A162" s="80"/>
+      <c r="A162" s="90"/>
       <c r="B162" s="1">
         <v>60</v>
       </c>
@@ -8156,7 +8150,7 @@
       <c r="N162" s="45"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A163" s="80"/>
+      <c r="A163" s="90"/>
       <c r="B163" s="1">
         <v>61</v>
       </c>
@@ -8191,14 +8185,14 @@
         <v>-7.1571658351384096E-18</v>
       </c>
       <c r="M163" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N163" s="46">
         <v>1.78510329636839E-12</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A164" s="80"/>
+      <c r="A164" s="90"/>
       <c r="B164" s="1">
         <v>62</v>
       </c>
@@ -8233,14 +8227,14 @@
         <v>-7.1571544302744895E-18</v>
       </c>
       <c r="M164" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N164" s="45">
         <v>7.5537094730028198E-10</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A165" s="80"/>
+      <c r="A165" s="90"/>
       <c r="B165" s="1">
         <v>63</v>
       </c>
@@ -8275,14 +8269,14 @@
         <v>-7.1571658178742395E-18</v>
       </c>
       <c r="M165" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N165" s="46">
         <v>2.9646636624289098E-11</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A166" s="80"/>
+      <c r="A166" s="90"/>
       <c r="B166" s="1">
         <v>64</v>
       </c>
@@ -8317,14 +8311,14 @@
         <v>2.2452148600814902E-12</v>
       </c>
       <c r="M166" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N166" s="45">
         <v>-3.3505387732680298E-4</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A167" s="80"/>
+      <c r="A167" s="90"/>
       <c r="B167" s="1">
         <v>65</v>
       </c>
@@ -8359,14 +8353,14 @@
         <v>-0.81580669566500097</v>
       </c>
       <c r="M167" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N167" s="46">
         <v>60.0222187952686</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A168" s="80"/>
+      <c r="A168" s="90"/>
       <c r="B168" s="1">
         <v>66</v>
       </c>
@@ -8401,14 +8395,14 @@
         <v>1.27510402436149E-7</v>
       </c>
       <c r="M168" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N168" s="45">
         <v>7.9846854178502805E-2</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A169" s="80"/>
+      <c r="A169" s="90"/>
       <c r="B169" s="1">
         <v>67</v>
       </c>
@@ -8443,14 +8437,14 @@
         <v>-0.921131723133637</v>
       </c>
       <c r="M169" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N169" s="46">
         <v>62.781411158914104</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A170" s="80"/>
+      <c r="A170" s="90"/>
       <c r="B170" s="1">
         <v>68</v>
       </c>
@@ -8485,14 +8479,14 @@
         <v>-7.1571476101785796E-18</v>
       </c>
       <c r="M170" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N170" s="45">
         <v>9.5481922565688809E-10</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A171" s="80"/>
+      <c r="A171" s="90"/>
       <c r="B171" s="1">
         <v>69</v>
       </c>
@@ -8527,14 +8521,14 @@
         <v>-7.1571658351623296E-18</v>
       </c>
       <c r="M171" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N171" s="46">
         <v>1.3378640316832399E-12</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A172" s="80"/>
+      <c r="A172" s="90"/>
       <c r="B172" s="1">
         <v>70</v>
       </c>
@@ -8542,7 +8536,7 @@
         <v>-1</v>
       </c>
       <c r="D172" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E172" s="46">
         <v>0.5</v>
@@ -8569,14 +8563,14 @@
         <v>-7.1571658351870092E-18</v>
       </c>
       <c r="M172" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N172" s="45">
         <v>2.4405528937652801E-13</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A173" s="80"/>
+      <c r="A173" s="90"/>
       <c r="B173" s="1">
         <v>71</v>
       </c>
@@ -8611,14 +8605,14 @@
         <v>-7.1571123987585493E-18</v>
       </c>
       <c r="M173" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N173" s="46">
         <v>1.63479556580906E-9</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A174" s="80"/>
+      <c r="A174" s="90"/>
       <c r="B174" s="1">
         <v>72</v>
       </c>
@@ -8653,14 +8647,14 @@
         <v>1.04673666127526E-14</v>
       </c>
       <c r="M174" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N174" s="45">
         <v>2.2885064981793301E-5</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A175" s="80"/>
+      <c r="A175" s="90"/>
       <c r="B175" s="1">
         <v>73</v>
       </c>
@@ -8695,14 +8689,14 @@
         <v>1.35658690598463E-17</v>
       </c>
       <c r="M175" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N175" s="46">
         <v>-1.01791516689629E-6</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A176" s="80"/>
+      <c r="A176" s="90"/>
       <c r="B176" s="1">
         <v>74</v>
       </c>
@@ -8737,14 +8731,14 @@
         <v>1.48637250736464E-8</v>
       </c>
       <c r="M176" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N176" s="45">
         <v>-2.7261442625586101E-2</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A177" s="80"/>
+      <c r="A177" s="90"/>
       <c r="B177" s="1">
         <v>75</v>
       </c>
@@ -8779,14 +8773,14 @@
         <v>-7.15716583489102E-18</v>
       </c>
       <c r="M177" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N177" s="46">
         <v>4.07256480081732E-12</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A178" s="80"/>
+      <c r="A178" s="90"/>
       <c r="B178" s="1">
         <v>76</v>
       </c>
@@ -8821,14 +8815,14 @@
         <v>-7.1571658319425907E-18</v>
       </c>
       <c r="M178" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N178" s="45">
         <v>1.29615550524863E-11</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A179" s="80"/>
+      <c r="A179" s="90"/>
       <c r="B179" s="1">
         <v>77</v>
       </c>
@@ -8863,14 +8857,14 @@
         <v>-0.69155399835250897</v>
       </c>
       <c r="M179" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N179" s="46">
         <v>58.5787787440945</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A180" s="80"/>
+      <c r="A180" s="90"/>
       <c r="B180" s="1">
         <v>78</v>
       </c>
@@ -8905,14 +8899,14 @@
         <v>-0.87725219676299604</v>
       </c>
       <c r="M180" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N180" s="45">
         <v>61.017106323087397</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A181" s="80"/>
+      <c r="A181" s="90"/>
       <c r="B181" s="1">
         <v>79</v>
       </c>
@@ -8947,14 +8941,14 @@
         <v>-7.15716583489102E-18</v>
       </c>
       <c r="M181" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N181" s="46">
         <v>4.07256480081732E-12</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A182" s="80"/>
+      <c r="A182" s="90"/>
       <c r="B182" s="1">
         <v>80</v>
       </c>
@@ -8989,14 +8983,14 @@
         <v>-0.89143039784837996</v>
       </c>
       <c r="M182" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N182" s="45">
         <v>64.162446781637499</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A183" s="80"/>
+      <c r="A183" s="90"/>
       <c r="B183" s="1">
         <v>81</v>
       </c>
@@ -9030,7 +9024,7 @@
       <c r="N183" s="46"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A184" s="80"/>
+      <c r="A184" s="90"/>
       <c r="B184" s="1">
         <v>82</v>
       </c>
@@ -9065,14 +9059,14 @@
         <v>-0.62798471885490503</v>
       </c>
       <c r="M184" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N184" s="45">
         <v>57.942649426114002</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A185" s="80"/>
+      <c r="A185" s="90"/>
       <c r="B185" s="1">
         <v>83</v>
       </c>
@@ -9106,7 +9100,7 @@
       <c r="N185" s="46"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A186" s="80"/>
+      <c r="A186" s="90"/>
       <c r="B186" s="1">
         <v>84</v>
       </c>
@@ -9141,14 +9135,14 @@
         <v>-7.1571658280186703E-18</v>
       </c>
       <c r="M186" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N186" s="45">
         <v>1.91568499255037E-11</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A187" s="80"/>
+      <c r="A187" s="90"/>
       <c r="B187" s="1">
         <v>85</v>
       </c>
@@ -9182,7 +9176,7 @@
       <c r="N187" s="46"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A188" s="80"/>
+      <c r="A188" s="90"/>
       <c r="B188" s="1">
         <v>86</v>
       </c>
@@ -9217,14 +9211,14 @@
         <v>-4.3122361856578704E-18</v>
       </c>
       <c r="M188" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N188" s="45">
         <v>-3.7715555526911602E-7</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A189" s="80"/>
+      <c r="A189" s="90"/>
       <c r="B189" s="1">
         <v>87</v>
       </c>
@@ -9259,14 +9253,14 @@
         <v>-0.91810508304197802</v>
       </c>
       <c r="M189" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N189" s="46">
         <v>62.297438358754697</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A190" s="80"/>
+      <c r="A190" s="90"/>
       <c r="B190" s="1">
         <v>88</v>
       </c>
@@ -9301,14 +9295,14 @@
         <v>4.0764145530090899E-5</v>
       </c>
       <c r="M190" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N190" s="45">
         <v>-1.4276579690194</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A191" s="80"/>
+      <c r="A191" s="90"/>
       <c r="B191" s="1">
         <v>89</v>
       </c>
@@ -9343,14 +9337,14 @@
         <v>-7.15632108503493E-18</v>
       </c>
       <c r="M191" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N191" s="46">
         <v>6.4992638246004901E-9</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A192" s="80"/>
+      <c r="A192" s="90"/>
       <c r="B192" s="1">
         <v>90</v>
       </c>
@@ -9385,14 +9379,14 @@
         <v>-7.1558938269653607E-18</v>
       </c>
       <c r="M192" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N192" s="45">
         <v>7.9752114375153008E-9</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A193" s="80"/>
+      <c r="A193" s="90"/>
       <c r="B193" s="1">
         <v>91</v>
       </c>
@@ -9426,7 +9420,7 @@
       <c r="N193" s="46"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A194" s="80"/>
+      <c r="A194" s="90"/>
       <c r="B194" s="1">
         <v>92</v>
       </c>
@@ -9461,14 +9455,14 @@
         <v>4.5239173740722799E-8</v>
       </c>
       <c r="M194" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N194" s="45">
         <v>-4.7560053483708599E-2</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A195" s="80"/>
+      <c r="A195" s="90"/>
       <c r="B195" s="1">
         <v>93</v>
       </c>
@@ -9503,14 +9497,14 @@
         <v>-0.92114830226267896</v>
       </c>
       <c r="M195" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N195" s="46">
         <v>62.748644684477298</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A196" s="80"/>
+      <c r="A196" s="90"/>
       <c r="B196" s="1">
         <v>94</v>
       </c>
@@ -9545,14 +9539,14 @@
         <v>-7.1571647627755598E-18</v>
       </c>
       <c r="M196" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N196" s="45">
         <v>2.3178602163747701E-10</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A197" s="80"/>
+      <c r="A197" s="90"/>
       <c r="B197" s="1">
         <v>95</v>
       </c>
@@ -9587,14 +9581,14 @@
         <v>-7.15694348761414E-18</v>
       </c>
       <c r="M197" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N197" s="46">
         <v>3.3344981802648398E-9</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A198" s="80"/>
+      <c r="A198" s="90"/>
       <c r="B198" s="1">
         <v>96</v>
       </c>
@@ -9628,7 +9622,7 @@
       <c r="N198" s="45"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A199" s="80"/>
+      <c r="A199" s="90"/>
       <c r="B199" s="1">
         <v>97</v>
       </c>
@@ -9663,14 +9657,14 @@
         <v>-7.1571658319425907E-18</v>
       </c>
       <c r="M199" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N199" s="46">
         <v>1.29615550524863E-11</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A200" s="80"/>
+      <c r="A200" s="90"/>
       <c r="B200" s="1">
         <v>98</v>
       </c>
@@ -9705,14 +9699,14 @@
         <v>1.27510402436149E-7</v>
       </c>
       <c r="M200" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N200" s="45">
         <v>7.9846854178502805E-2</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A201" s="80"/>
+      <c r="A201" s="90"/>
       <c r="B201" s="1">
         <v>99</v>
       </c>
@@ -9747,14 +9741,14 @@
         <v>6.15084572873333E-17</v>
       </c>
       <c r="M201" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N201" s="46">
         <v>-1.85291131004061E-6</v>
       </c>
     </row>
     <row r="202" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="83"/>
+      <c r="A202" s="93"/>
       <c r="B202" s="17">
         <v>100</v>
       </c>
@@ -9788,7 +9782,7 @@
       <c r="N202" s="51"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A203" s="79">
+      <c r="A203" s="89">
         <v>1.2</v>
       </c>
       <c r="B203" s="12">
@@ -9825,14 +9819,14 @@
         <v>-7.1571658350493992E-18</v>
       </c>
       <c r="M203" s="49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N203" s="49">
         <v>2.84871420288464E-12</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A204" s="80"/>
+      <c r="A204" s="90"/>
       <c r="B204" s="1">
         <v>2</v>
       </c>
@@ -9867,14 +9861,14 @@
         <v>-7.1571657460873101E-18</v>
       </c>
       <c r="M204" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N204" s="45">
         <v>6.6970546641438299E-11</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A205" s="80"/>
+      <c r="A205" s="90"/>
       <c r="B205" s="1">
         <v>3</v>
       </c>
@@ -9909,14 +9903,14 @@
         <v>-0.92076558982013701</v>
       </c>
       <c r="M205" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N205" s="46">
         <v>62.588487894898002</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A206" s="80"/>
+      <c r="A206" s="90"/>
       <c r="B206" s="1">
         <v>4</v>
       </c>
@@ -9951,14 +9945,14 @@
         <v>-7.1571658351857797E-18</v>
       </c>
       <c r="M206" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N206" s="45">
         <v>4.8019719224733696E-13</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A207" s="80"/>
+      <c r="A207" s="90"/>
       <c r="B207" s="1">
         <v>5</v>
       </c>
@@ -9993,14 +9987,14 @@
         <v>-7.1571658351866595E-18</v>
       </c>
       <c r="M207" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N207" s="46">
         <v>3.7176053998315599E-13</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A208" s="80"/>
+      <c r="A208" s="90"/>
       <c r="B208" s="1">
         <v>6</v>
       </c>
@@ -10035,14 +10029,14 @@
         <v>-7.1571657743959396E-18</v>
       </c>
       <c r="M208" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N208" s="45">
         <v>5.5357042863100202E-11</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A209" s="80"/>
+      <c r="A209" s="90"/>
       <c r="B209" s="1">
         <v>7</v>
       </c>
@@ -10077,14 +10071,14 @@
         <v>-7.1571658351827999E-18</v>
       </c>
       <c r="M209" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N209" s="46">
         <v>6.8649196841414898E-13</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A210" s="80"/>
+      <c r="A210" s="90"/>
       <c r="B210" s="1">
         <v>8</v>
       </c>
@@ -10119,14 +10113,14 @@
         <v>-5.4975999610021403E-18</v>
       </c>
       <c r="M210" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N210" s="45">
         <v>-2.8805930668792201E-7</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A211" s="80"/>
+      <c r="A211" s="90"/>
       <c r="B211" s="1">
         <v>9</v>
       </c>
@@ -10161,14 +10155,14 @@
         <v>-7.1571589110891197E-18</v>
       </c>
       <c r="M211" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N211" s="46">
         <v>5.8861663784031301E-10</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A212" s="80"/>
+      <c r="A212" s="90"/>
       <c r="B212" s="1">
         <v>10</v>
       </c>
@@ -10203,14 +10197,14 @@
         <v>-7.1571658351866595E-18</v>
       </c>
       <c r="M212" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N212" s="45">
         <v>3.7176053998315599E-13</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A213" s="80"/>
+      <c r="A213" s="90"/>
       <c r="B213" s="1">
         <v>11</v>
       </c>
@@ -10245,14 +10239,14 @@
         <v>-6.9744023249316307E-18</v>
       </c>
       <c r="M213" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N213" s="46">
         <v>-9.5593579933411101E-8</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A214" s="80"/>
+      <c r="A214" s="90"/>
       <c r="B214" s="1">
         <v>12</v>
       </c>
@@ -10287,14 +10281,14 @@
         <v>-7.1571657115277899E-18</v>
       </c>
       <c r="M214" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N214" s="45">
         <v>7.8856674559285394E-11</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A215" s="80"/>
+      <c r="A215" s="90"/>
       <c r="B215" s="1">
         <v>13</v>
       </c>
@@ -10329,14 +10323,14 @@
         <v>-7.1547895710790296E-18</v>
       </c>
       <c r="M215" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N215" s="46">
         <v>-1.0899922186817199E-8</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A216" s="80"/>
+      <c r="A216" s="90"/>
       <c r="B216" s="1">
         <v>14</v>
       </c>
@@ -10371,14 +10365,14 @@
         <v>-7.1571657743959396E-18</v>
       </c>
       <c r="M216" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N216" s="45">
         <v>5.5357042863100202E-11</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A217" s="80"/>
+      <c r="A217" s="90"/>
       <c r="B217" s="1">
         <v>15</v>
       </c>
@@ -10412,7 +10406,7 @@
       <c r="N217" s="46"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A218" s="80"/>
+      <c r="A218" s="90"/>
       <c r="B218" s="1">
         <v>16</v>
       </c>
@@ -10446,7 +10440,7 @@
       <c r="N218" s="45"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A219" s="80"/>
+      <c r="A219" s="90"/>
       <c r="B219" s="1">
         <v>17</v>
       </c>
@@ -10481,14 +10475,14 @@
         <v>-7.1560575733015993E-18</v>
       </c>
       <c r="M219" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N219" s="46">
         <v>7.4442220463445598E-9</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A220" s="80"/>
+      <c r="A220" s="90"/>
       <c r="B220" s="1">
         <v>18</v>
       </c>
@@ -10522,7 +10516,7 @@
       <c r="N220" s="45"/>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A221" s="80"/>
+      <c r="A221" s="90"/>
       <c r="B221" s="1">
         <v>19</v>
       </c>
@@ -10557,14 +10551,14 @@
         <v>-0.92114166277874099</v>
       </c>
       <c r="M221" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N221" s="46">
         <v>62.7271471524028</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A222" s="80"/>
+      <c r="A222" s="90"/>
       <c r="B222" s="1">
         <v>20</v>
       </c>
@@ -10599,14 +10593,14 @@
         <v>-7.1571658351870401E-18</v>
       </c>
       <c r="M222" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N222" s="45">
         <v>2.4133034960036599E-13</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A223" s="80"/>
+      <c r="A223" s="90"/>
       <c r="B223" s="1">
         <v>21</v>
       </c>
@@ -10640,7 +10634,7 @@
       <c r="N223" s="46"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A224" s="80"/>
+      <c r="A224" s="90"/>
       <c r="B224" s="1">
         <v>22</v>
       </c>
@@ -10675,14 +10669,14 @@
         <v>-7.1571658351832606E-18</v>
       </c>
       <c r="M224" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N224" s="45">
         <v>-2.0929535760776999E-13</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A225" s="80"/>
+      <c r="A225" s="90"/>
       <c r="B225" s="1">
         <v>23</v>
       </c>
@@ -10717,14 +10711,14 @@
         <v>-7.1571658349076E-18</v>
       </c>
       <c r="M225" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N225" s="46">
         <v>3.9630850228803002E-12</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A226" s="80"/>
+      <c r="A226" s="90"/>
       <c r="B226" s="1">
         <v>24</v>
       </c>
@@ -10759,14 +10753,14 @@
         <v>-7.1571658351462997E-18</v>
       </c>
       <c r="M226" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N226" s="45">
         <v>1.6525142847175101E-12</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A227" s="80"/>
+      <c r="A227" s="90"/>
       <c r="B227" s="1">
         <v>25</v>
       </c>
@@ -10801,14 +10795,14 @@
         <v>3.9922364007370598E-14</v>
       </c>
       <c r="M227" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N227" s="46">
         <v>-4.4681943093015399E-5</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A228" s="80"/>
+      <c r="A228" s="90"/>
       <c r="B228" s="1">
         <v>26</v>
       </c>
@@ -10843,14 +10837,14 @@
         <v>-7.15716582841521E-18</v>
       </c>
       <c r="M228" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N228" s="45">
         <v>1.8625760282010999E-11</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A229" s="80"/>
+      <c r="A229" s="90"/>
       <c r="B229" s="1">
         <v>27</v>
       </c>
@@ -10885,14 +10879,14 @@
         <v>-7.1565483230443293E-18</v>
       </c>
       <c r="M229" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N229" s="46">
         <v>5.5568071744180403E-9</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A230" s="80"/>
+      <c r="A230" s="90"/>
       <c r="B230" s="1">
         <v>28</v>
       </c>
@@ -10927,14 +10921,14 @@
         <v>-7.1571658351869707E-18</v>
       </c>
       <c r="M230" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N230" s="45">
         <v>2.99509729176776E-13</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A231" s="80"/>
+      <c r="A231" s="90"/>
       <c r="B231" s="1">
         <v>29</v>
       </c>
@@ -10969,14 +10963,14 @@
         <v>-7.1571658351869707E-18</v>
       </c>
       <c r="M231" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N231" s="46">
         <v>2.99509729176776E-13</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A232" s="80"/>
+      <c r="A232" s="90"/>
       <c r="B232" s="1">
         <v>30</v>
       </c>
@@ -11011,14 +11005,14 @@
         <v>-6.7283829603778604E-18</v>
       </c>
       <c r="M232" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N232" s="45">
         <v>-1.4642089296010699E-7</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A233" s="80"/>
+      <c r="A233" s="90"/>
       <c r="B233" s="1">
         <v>31</v>
       </c>
@@ -11053,14 +11047,14 @@
         <v>-7.1571658351863698E-18</v>
       </c>
       <c r="M233" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N233" s="46">
         <v>4.0975979316534501E-13</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A234" s="80"/>
+      <c r="A234" s="90"/>
       <c r="B234" s="1">
         <v>32</v>
       </c>
@@ -11095,14 +11089,14 @@
         <v>-7.1571658351799095E-18</v>
       </c>
       <c r="M234" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N234" s="45">
         <v>8.2415573384033301E-13</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A235" s="80"/>
+      <c r="A235" s="90"/>
       <c r="B235" s="1">
         <v>33</v>
       </c>
@@ -11137,14 +11131,14 @@
         <v>-7.1571658351277307E-18</v>
       </c>
       <c r="M235" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N235" s="46">
         <v>1.94722289599452E-12</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A236" s="80"/>
+      <c r="A236" s="90"/>
       <c r="B236" s="1">
         <v>34</v>
       </c>
@@ -11179,14 +11173,14 @@
         <v>-7.1571658351865501E-18</v>
       </c>
       <c r="M236" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N236" s="45">
         <v>3.9561840310355401E-13</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A237" s="80"/>
+      <c r="A237" s="90"/>
       <c r="B237" s="1">
         <v>35</v>
       </c>
@@ -11221,14 +11215,14 @@
         <v>-7.1571658351865501E-18</v>
       </c>
       <c r="M237" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N237" s="46">
         <v>3.9561840310355401E-13</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A238" s="80"/>
+      <c r="A238" s="90"/>
       <c r="B238" s="1">
         <v>36</v>
       </c>
@@ -11263,14 +11257,14 @@
         <v>-7.1571658348701707E-18</v>
       </c>
       <c r="M238" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N238" s="45">
         <v>4.2052484870781702E-12</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A239" s="80"/>
+      <c r="A239" s="90"/>
       <c r="B239" s="1">
         <v>37</v>
       </c>
@@ -11305,14 +11299,14 @@
         <v>-7.1571658351869707E-18</v>
       </c>
       <c r="M239" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N239" s="46">
         <v>2.99509729176776E-13</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A240" s="80"/>
+      <c r="A240" s="90"/>
       <c r="B240" s="1">
         <v>38</v>
       </c>
@@ -11347,14 +11341,14 @@
         <v>-7.1565483230443293E-18</v>
       </c>
       <c r="M240" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N240" s="45">
         <v>5.5568071744180403E-9</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A241" s="80"/>
+      <c r="A241" s="90"/>
       <c r="B241" s="1">
         <v>39</v>
       </c>
@@ -11389,14 +11383,14 @@
         <v>-7.1570491194584708E-18</v>
       </c>
       <c r="M241" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N241" s="46">
         <v>2.4159620925581901E-9</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A242" s="80"/>
+      <c r="A242" s="90"/>
       <c r="B242" s="1">
         <v>40</v>
       </c>
@@ -11431,14 +11425,14 @@
         <v>-6.9744023249316307E-18</v>
       </c>
       <c r="M242" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N242" s="45">
         <v>-9.5593579933411101E-8</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A243" s="80"/>
+      <c r="A243" s="90"/>
       <c r="B243" s="1">
         <v>41</v>
       </c>
@@ -11473,14 +11467,14 @@
         <v>-7.1571658351868305E-18</v>
       </c>
       <c r="M243" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N243" s="46">
         <v>3.42118417263318E-13</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A244" s="80"/>
+      <c r="A244" s="90"/>
       <c r="B244" s="1">
         <v>42</v>
       </c>
@@ -11515,14 +11509,14 @@
         <v>-7.1571658351692799E-18</v>
       </c>
       <c r="M244" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N244" s="45">
         <v>1.1687537586964101E-12</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A245" s="80"/>
+      <c r="A245" s="90"/>
       <c r="B245" s="1">
         <v>43</v>
       </c>
@@ -11557,14 +11551,14 @@
         <v>-7.1571658351870693E-18</v>
       </c>
       <c r="M245" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N245" s="46">
         <v>2.3773291146589701E-13</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A246" s="80"/>
+      <c r="A246" s="90"/>
       <c r="B246" s="1">
         <v>44</v>
       </c>
@@ -11599,14 +11593,14 @@
         <v>-0.92114828294561601</v>
       </c>
       <c r="M246" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N246" s="45">
         <v>62.749406152710797</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A247" s="80"/>
+      <c r="A247" s="90"/>
       <c r="B247" s="1">
         <v>45</v>
       </c>
@@ -11641,14 +11635,14 @@
         <v>-0.92031225836578101</v>
       </c>
       <c r="M247" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N247" s="46">
         <v>62.984124504517098</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A248" s="80"/>
+      <c r="A248" s="90"/>
       <c r="B248" s="1">
         <v>46</v>
       </c>
@@ -11683,14 +11677,14 @@
         <v>-7.1571658351853607E-18</v>
       </c>
       <c r="M248" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N248" s="45">
         <v>5.21674643639615E-13</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A249" s="80"/>
+      <c r="A249" s="90"/>
       <c r="B249" s="1">
         <v>47</v>
       </c>
@@ -11725,14 +11719,14 @@
         <v>-0.92114800238234495</v>
       </c>
       <c r="M249" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N249" s="46">
         <v>62.752673611607101</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A250" s="80"/>
+      <c r="A250" s="90"/>
       <c r="B250" s="1">
         <v>48</v>
       </c>
@@ -11767,14 +11761,14 @@
         <v>-7.1571658351833608E-18</v>
       </c>
       <c r="M250" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N250" s="45">
         <v>6.5594229695646502E-13</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A251" s="80"/>
+      <c r="A251" s="90"/>
       <c r="B251" s="1">
         <v>49</v>
       </c>
@@ -11809,14 +11803,14 @@
         <v>-0.92084219958460301</v>
       </c>
       <c r="M251" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N251" s="46">
         <v>62.605367982497697</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A252" s="80"/>
+      <c r="A252" s="90"/>
       <c r="B252" s="1">
         <v>50</v>
       </c>
@@ -11850,7 +11844,7 @@
       <c r="N252" s="45"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A253" s="80"/>
+      <c r="A253" s="90"/>
       <c r="B253" s="1">
         <v>51</v>
       </c>
@@ -11885,14 +11879,14 @@
         <v>-0.92113681030264805</v>
       </c>
       <c r="M253" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N253" s="46">
         <v>62.720511181447797</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A254" s="80"/>
+      <c r="A254" s="90"/>
       <c r="B254" s="1">
         <v>52</v>
       </c>
@@ -11927,14 +11921,14 @@
         <v>-7.1571640911195603E-18</v>
       </c>
       <c r="M254" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N254" s="45">
         <v>2.9552702322319298E-10</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A255" s="80"/>
+      <c r="A255" s="90"/>
       <c r="B255" s="1">
         <v>53</v>
       </c>
@@ -11969,14 +11963,14 @@
         <v>-7.1568446996079394E-18</v>
       </c>
       <c r="M255" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N255" s="46">
         <v>4.0073159333080698E-9</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A256" s="80"/>
+      <c r="A256" s="90"/>
       <c r="B256" s="1">
         <v>54</v>
       </c>
@@ -12011,14 +12005,14 @@
         <v>-7.1571658349489597E-18</v>
       </c>
       <c r="M256" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N256" s="45">
         <v>3.6753853761651702E-12</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A257" s="80"/>
+      <c r="A257" s="90"/>
       <c r="B257" s="1">
         <v>55</v>
       </c>
@@ -12053,14 +12047,14 @@
         <v>-7.1568886105274704E-18</v>
       </c>
       <c r="M257" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N257" s="46">
         <v>3.72329253298031E-9</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A258" s="80"/>
+      <c r="A258" s="90"/>
       <c r="B258" s="1">
         <v>56</v>
       </c>
@@ -12095,14 +12089,14 @@
         <v>-7.1571658351870801E-18</v>
       </c>
       <c r="M258" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N258" s="45">
         <v>2.31367037470604E-13</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A259" s="80"/>
+      <c r="A259" s="90"/>
       <c r="B259" s="1">
         <v>57</v>
       </c>
@@ -12137,14 +12131,14 @@
         <v>-7.1571658351776893E-18</v>
       </c>
       <c r="M259" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N259" s="46">
         <v>9.1144108036457891E-13</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A260" s="80"/>
+      <c r="A260" s="90"/>
       <c r="B260" s="1">
         <v>58</v>
       </c>
@@ -12179,14 +12173,14 @@
         <v>-7.1571658351144402E-18</v>
       </c>
       <c r="M260" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N260" s="45">
         <v>2.1307652498361402E-12</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A261" s="80"/>
+      <c r="A261" s="90"/>
       <c r="B261" s="1">
         <v>59</v>
       </c>
@@ -12221,14 +12215,14 @@
         <v>-7.1571658351870801E-18</v>
       </c>
       <c r="M261" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N261" s="46">
         <v>2.31367037470604E-13</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A262" s="80"/>
+      <c r="A262" s="90"/>
       <c r="B262" s="1">
         <v>60</v>
       </c>
@@ -12263,14 +12257,14 @@
         <v>-7.1571657743959396E-18</v>
       </c>
       <c r="M262" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N262" s="45">
         <v>5.5357042863100202E-11</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A263" s="80"/>
+      <c r="A263" s="90"/>
       <c r="B263" s="1">
         <v>61</v>
       </c>
@@ -12305,14 +12299,14 @@
         <v>-0.92114830549138205</v>
       </c>
       <c r="M263" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N263" s="46">
         <v>62.748164467463397</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A264" s="80"/>
+      <c r="A264" s="90"/>
       <c r="B264" s="1">
         <v>62</v>
       </c>
@@ -12347,14 +12341,14 @@
         <v>-7.1571099577010995E-18</v>
       </c>
       <c r="M264" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N264" s="45">
         <v>1.67171349618215E-9</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A265" s="80"/>
+      <c r="A265" s="90"/>
       <c r="B265" s="1">
         <v>63</v>
       </c>
@@ -12389,14 +12383,14 @@
         <v>-7.1571657806490397E-18</v>
       </c>
       <c r="M265" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N265" s="46">
         <v>5.24446197553837E-11</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A266" s="80"/>
+      <c r="A266" s="90"/>
       <c r="B266" s="1">
         <v>64</v>
       </c>
@@ -12431,14 +12425,14 @@
         <v>-7.1565483230443293E-18</v>
       </c>
       <c r="M266" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N266" s="45">
         <v>5.5568071744180403E-9</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A267" s="80"/>
+      <c r="A267" s="90"/>
       <c r="B267" s="1">
         <v>65</v>
       </c>
@@ -12473,14 +12467,14 @@
         <v>-7.1571657044092694E-18</v>
       </c>
       <c r="M267" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N267" s="46">
         <v>8.1088257125418801E-11</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A268" s="80"/>
+      <c r="A268" s="90"/>
       <c r="B268" s="1">
         <v>66</v>
       </c>
@@ -12515,14 +12509,14 @@
         <v>-7.1571658351803995E-18</v>
       </c>
       <c r="M268" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N268" s="45">
         <v>8.0439378487722801E-13</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A269" s="80"/>
+      <c r="A269" s="90"/>
       <c r="B269" s="1">
         <v>67</v>
       </c>
@@ -12557,14 +12551,14 @@
         <v>-7.1571658351857797E-18</v>
       </c>
       <c r="M269" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N269" s="46">
         <v>4.8019719224733696E-13</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A270" s="80"/>
+      <c r="A270" s="90"/>
       <c r="B270" s="1">
         <v>68</v>
       </c>
@@ -12599,14 +12593,14 @@
         <v>-7.1571658351869908E-18</v>
       </c>
       <c r="M270" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N270" s="45">
         <v>2.8460307027753301E-13</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A271" s="80"/>
+      <c r="A271" s="90"/>
       <c r="B271" s="1">
         <v>69</v>
       </c>
@@ -12641,14 +12635,14 @@
         <v>-7.1571658351869106E-18</v>
       </c>
       <c r="M271" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N271" s="46">
         <v>3.0459112619298701E-13</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A272" s="80"/>
+      <c r="A272" s="90"/>
       <c r="B272" s="1">
         <v>70</v>
       </c>
@@ -12683,14 +12677,14 @@
         <v>-7.1571655839026494E-18</v>
       </c>
       <c r="M272" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N272" s="45">
         <v>1.12315092994664E-10</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A273" s="80"/>
+      <c r="A273" s="90"/>
       <c r="B273" s="1">
         <v>71</v>
       </c>
@@ -12725,14 +12719,14 @@
         <v>-0.92114830354112098</v>
       </c>
       <c r="M273" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N273" s="46">
         <v>62.748541451876598</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A274" s="80"/>
+      <c r="A274" s="90"/>
       <c r="B274" s="1">
         <v>72</v>
       </c>
@@ -12767,14 +12761,14 @@
         <v>-7.1571658037018403E-18</v>
       </c>
       <c r="M274" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N274" s="45">
         <v>3.9901855220496202E-11</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A275" s="80"/>
+      <c r="A275" s="90"/>
       <c r="B275" s="1">
         <v>73</v>
       </c>
@@ -12809,14 +12803,14 @@
         <v>-0.92114819709254403</v>
       </c>
       <c r="M275" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N275" s="46">
         <v>62.745493805125001</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A276" s="80"/>
+      <c r="A276" s="90"/>
       <c r="B276" s="1">
         <v>74</v>
       </c>
@@ -12851,14 +12845,14 @@
         <v>-7.1571658350489401E-18</v>
       </c>
       <c r="M276" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N276" s="45">
         <v>2.8527533345198301E-12</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A277" s="80"/>
+      <c r="A277" s="90"/>
       <c r="B277" s="1">
         <v>75</v>
       </c>
@@ -12892,7 +12886,7 @@
       <c r="N277" s="46"/>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A278" s="80"/>
+      <c r="A278" s="90"/>
       <c r="B278" s="1">
         <v>76</v>
       </c>
@@ -12927,14 +12921,14 @@
         <v>-7.15716582751581E-18</v>
       </c>
       <c r="M278" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N278" s="45">
         <v>1.9809593648688799E-11</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A279" s="80"/>
+      <c r="A279" s="90"/>
       <c r="B279" s="1">
         <v>77</v>
       </c>
@@ -12968,7 +12962,7 @@
       <c r="N279" s="46"/>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A280" s="80"/>
+      <c r="A280" s="90"/>
       <c r="B280" s="1">
         <v>78</v>
       </c>
@@ -13002,7 +12996,7 @@
       <c r="N280" s="45"/>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A281" s="80"/>
+      <c r="A281" s="90"/>
       <c r="B281" s="1">
         <v>79</v>
       </c>
@@ -13037,14 +13031,14 @@
         <v>-0.92102461821358605</v>
       </c>
       <c r="M281" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N281" s="46">
         <v>62.657409304521103</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A282" s="80"/>
+      <c r="A282" s="90"/>
       <c r="B282" s="1">
         <v>80</v>
       </c>
@@ -13079,14 +13073,14 @@
         <v>-6.9744023249316307E-18</v>
       </c>
       <c r="M282" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N282" s="45">
         <v>-9.5593579933411101E-8</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A283" s="80"/>
+      <c r="A283" s="90"/>
       <c r="B283" s="1">
         <v>81</v>
       </c>
@@ -13121,14 +13115,14 @@
         <v>-7.1571658351181996E-18</v>
       </c>
       <c r="M283" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N283" s="46">
         <v>2.0806718742770099E-12</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A284" s="80"/>
+      <c r="A284" s="90"/>
       <c r="B284" s="1">
         <v>82</v>
       </c>
@@ -13163,14 +13157,14 @@
         <v>-7.1571658347195706E-18</v>
       </c>
       <c r="M284" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N284" s="45">
         <v>5.0597085257135196E-12</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A285" s="80"/>
+      <c r="A285" s="90"/>
       <c r="B285" s="1">
         <v>83</v>
       </c>
@@ -13205,14 +13199,14 @@
         <v>-0.92091959054233496</v>
       </c>
       <c r="M285" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N285" s="46">
         <v>62.871586704216597</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A286" s="80"/>
+      <c r="A286" s="90"/>
       <c r="B286" s="1">
         <v>84</v>
       </c>
@@ -13246,7 +13240,7 @@
       <c r="N286" s="45"/>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A287" s="80"/>
+      <c r="A287" s="90"/>
       <c r="B287" s="1">
         <v>85</v>
       </c>
@@ -13281,14 +13275,14 @@
         <v>-7.1571658257067192E-18</v>
       </c>
       <c r="M287" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N287" s="46">
         <v>2.1996848569814701E-11</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A288" s="80"/>
+      <c r="A288" s="90"/>
       <c r="B288" s="1">
         <v>86</v>
       </c>
@@ -13323,14 +13317,14 @@
         <v>-7.1571658351866595E-18</v>
       </c>
       <c r="M288" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N288" s="45">
         <v>3.7188399254021201E-13</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A289" s="80"/>
+      <c r="A289" s="90"/>
       <c r="B289" s="1">
         <v>87</v>
       </c>
@@ -13364,7 +13358,7 @@
       <c r="N289" s="46"/>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A290" s="80"/>
+      <c r="A290" s="90"/>
       <c r="B290" s="1">
         <v>88</v>
       </c>
@@ -13399,14 +13393,14 @@
         <v>-7.1571658351741302E-18</v>
       </c>
       <c r="M290" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N290" s="45">
         <v>1.02936110857662E-12</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A291" s="80"/>
+      <c r="A291" s="90"/>
       <c r="B291" s="1">
         <v>89</v>
       </c>
@@ -13441,14 +13435,14 @@
         <v>-7.1571655076000907E-18</v>
       </c>
       <c r="M291" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N291" s="46">
         <v>1.28206690284219E-10</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A292" s="80"/>
+      <c r="A292" s="90"/>
       <c r="B292" s="1">
         <v>90</v>
       </c>
@@ -13483,14 +13477,14 @@
         <v>-0.92031225836578101</v>
       </c>
       <c r="M292" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N292" s="45">
         <v>62.984124504517098</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A293" s="80"/>
+      <c r="A293" s="90"/>
       <c r="B293" s="1">
         <v>91</v>
       </c>
@@ -13525,14 +13519,14 @@
         <v>-7.1571658340675602E-18</v>
       </c>
       <c r="M293" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N293" s="46">
         <v>7.7067352294884807E-12</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A294" s="80"/>
+      <c r="A294" s="90"/>
       <c r="B294" s="1">
         <v>92</v>
       </c>
@@ -13567,14 +13561,14 @@
         <v>-7.1571658351870401E-18</v>
       </c>
       <c r="M294" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N294" s="45">
         <v>2.4133034960036599E-13</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A295" s="80"/>
+      <c r="A295" s="90"/>
       <c r="B295" s="1">
         <v>93</v>
       </c>
@@ -13609,14 +13603,14 @@
         <v>-7.1498628204747703E-18</v>
       </c>
       <c r="M295" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N295" s="46">
         <v>-1.91086928496273E-8</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A296" s="80"/>
+      <c r="A296" s="90"/>
       <c r="B296" s="1">
         <v>94</v>
       </c>
@@ -13651,14 +13645,14 @@
         <v>-0.91804510106559001</v>
       </c>
       <c r="M296" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N296" s="45">
         <v>62.293009291485298</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A297" s="80"/>
+      <c r="A297" s="90"/>
       <c r="B297" s="1">
         <v>95</v>
       </c>
@@ -13693,14 +13687,14 @@
         <v>-7.1571658351181996E-18</v>
       </c>
       <c r="M297" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N297" s="46">
         <v>2.0806718742770099E-12</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A298" s="80"/>
+      <c r="A298" s="90"/>
       <c r="B298" s="1">
         <v>96</v>
       </c>
@@ -13735,14 +13729,14 @@
         <v>-7.1571658349489597E-18</v>
       </c>
       <c r="M298" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N298" s="45">
         <v>3.6753853761651702E-12</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A299" s="80"/>
+      <c r="A299" s="90"/>
       <c r="B299" s="1">
         <v>97</v>
       </c>
@@ -13776,7 +13770,7 @@
       <c r="N299" s="46"/>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A300" s="80"/>
+      <c r="A300" s="90"/>
       <c r="B300" s="1">
         <v>98</v>
       </c>
@@ -13811,14 +13805,14 @@
         <v>-0.92114825284686197</v>
       </c>
       <c r="M300" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N300" s="45">
         <v>62.746308193825001</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A301" s="80"/>
+      <c r="A301" s="90"/>
       <c r="B301" s="1">
         <v>99</v>
       </c>
@@ -13853,14 +13847,14 @@
         <v>-7.1571658348928104E-18</v>
       </c>
       <c r="M301" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N301" s="46">
         <v>4.0606008782241097E-12</v>
       </c>
     </row>
     <row r="302" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="81"/>
+      <c r="A302" s="91"/>
       <c r="B302" s="3">
         <v>100</v>
       </c>
@@ -13895,49 +13889,49 @@
         <v>-0.92091959054233496</v>
       </c>
       <c r="M302" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N302" s="45">
         <v>62.871586704216597</v>
       </c>
     </row>
     <row r="303" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="B303" s="116"/>
-      <c r="C303" s="117"/>
-      <c r="D303" s="118">
+      <c r="A303" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B303" s="80"/>
+      <c r="C303" s="81"/>
+      <c r="D303" s="72">
         <v>-100</v>
       </c>
-      <c r="E303" s="119">
+      <c r="E303" s="73">
         <v>100</v>
       </c>
-      <c r="F303" s="120">
+      <c r="F303" s="74">
         <v>0</v>
       </c>
-      <c r="G303" s="122">
+      <c r="G303" s="76">
         <v>4.1394468792275597E-6</v>
       </c>
-      <c r="H303" s="123">
+      <c r="H303" s="77">
         <v>3.35543206253636E-16</v>
       </c>
-      <c r="I303" s="124">
+      <c r="I303" s="78">
         <v>68</v>
       </c>
-      <c r="J303" s="124">
+      <c r="J303" s="78">
         <v>4.1394468792275597E-6</v>
       </c>
-      <c r="K303" s="121">
+      <c r="K303" s="75">
         <v>-1.04967566730969E-4</v>
       </c>
-      <c r="L303" s="121">
+      <c r="L303" s="75">
         <v>2.2035664508658901E-13</v>
       </c>
-      <c r="M303" s="121">
+      <c r="M303" s="75">
         <v>8</v>
       </c>
-      <c r="N303" s="121">
+      <c r="N303" s="75">
         <v>-1.04967566730969E-4</v>
       </c>
     </row>
@@ -18546,38 +18540,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="75"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="87"/>
+      <c r="A2" s="112"/>
       <c r="B2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="90"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="20" t="s">
         <v>8</v>
       </c>
@@ -18588,7 +18582,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>8</v>
@@ -18600,23 +18594,23 @@
         <v>2</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="95">
+      <c r="A3" s="103">
         <v>2</v>
       </c>
-      <c r="B3" s="98">
+      <c r="B3" s="106">
         <f>AVERAGE('Tabela 1'!E3:E102) -AVERAGE('Tabela 1'!D3:D102)</f>
         <v>57.033434343434344</v>
       </c>
-      <c r="C3" s="91">
+      <c r="C3" s="99">
         <f>AVERAGE('Tabela 1'!F3:F102)</f>
         <v>16.579999999999998</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="67">
         <f>AVERAGEIFS('Tabela 1'!G3:G102,'Tabela 1'!G3:G102,"&gt;-0,01",'Tabela 1'!G3:G102,"&lt;0,01")</f>
@@ -18651,11 +18645,11 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="96"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="92"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="69">
         <f>AVERAGEIFS('Tabela 1'!G3:G102,'Tabela 1'!G3:G102,"&gt;62,6",'Tabela 1'!G3:G102,"&lt;62,8")</f>
@@ -18690,25 +18684,25 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="97"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="93"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="103"/>
+        <v>23</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="96"/>
       <c r="G5" s="17"/>
       <c r="H5" s="46">
         <f>100-H4-H3</f>
         <v>6</v>
       </c>
-      <c r="I5" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="103"/>
+      <c r="I5" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="96"/>
       <c r="K5" s="17"/>
       <c r="L5" s="46">
         <f>100-L4-L3</f>
@@ -18716,19 +18710,19 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="95">
+      <c r="A6" s="103">
         <v>1.5</v>
       </c>
-      <c r="B6" s="98">
+      <c r="B6" s="106">
         <f>AVERAGE('Tabela 1'!E103:E202) -AVERAGE('Tabela 1'!D103:D202)</f>
         <v>26.690757785373254</v>
       </c>
-      <c r="C6" s="91">
+      <c r="C6" s="99">
         <f>AVERAGE('Tabela 1'!F103:F202)</f>
         <v>21.38</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="67">
         <f>AVERAGEIFS('Tabela 1'!G103:G202,'Tabela 1'!G103:G202,"&gt;-0,001",'Tabela 1'!G103:G202,"&lt;0,001")</f>
@@ -18763,11 +18757,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="96"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="92"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="69">
         <f>AVERAGEIFS('Tabela 1'!G103:G202,'Tabela 1'!G103:G202,"&gt;62,6",'Tabela 1'!G103:G202,"&lt;62,8")</f>
@@ -18802,25 +18796,25 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="97"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="93"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="103"/>
+        <v>23</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="96"/>
       <c r="G8" s="3"/>
       <c r="H8" s="46">
         <f>100-H7-H6</f>
         <v>14</v>
       </c>
-      <c r="I8" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="103"/>
+      <c r="I8" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="96"/>
       <c r="K8" s="3"/>
       <c r="L8" s="46">
         <f>100-L7-L6</f>
@@ -18832,7 +18826,7 @@
       <c r="B9" s="36"/>
       <c r="C9" s="37"/>
       <c r="D9" s="41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="67">
         <f>AVERAGEIFS('Tabela 1'!G203:G302,'Tabela 1'!G203:G302,"&gt;-0,001",'Tabela 1'!G203:G302,"&lt;0,001")</f>
@@ -18867,19 +18861,19 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="96">
+      <c r="A10" s="104">
         <v>1.2</v>
       </c>
-      <c r="B10" s="101">
+      <c r="B10" s="109">
         <f>AVERAGE('Tabela 1'!E203:E302) -AVERAGE('Tabela 1'!D203:D302)</f>
         <v>11.29310658823746</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="102">
         <f>AVERAGE('Tabela 1'!F203:F302)</f>
         <v>37.96</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="69">
         <f>AVERAGEIFS('Tabela 1'!G203:G302,'Tabela 1'!G203:G302,"&gt;62,6",'Tabela 1'!G203:G302,"&lt;62,8")</f>
@@ -18914,25 +18908,25 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="97"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="93"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="104" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="105"/>
+        <v>23</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="98"/>
       <c r="G11" s="3"/>
       <c r="H11" s="46">
         <f>100-H10-H9</f>
         <v>11</v>
       </c>
-      <c r="I11" s="104" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="105"/>
+      <c r="I11" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="98"/>
       <c r="K11" s="3"/>
       <c r="L11" s="46">
         <f>100-L10-L9</f>
@@ -18941,12 +18935,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C10:C11"/>
@@ -18956,11 +18949,12 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18969,10 +18963,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18982,16 +18976,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="108"/>
+      <c r="C1" s="118"/>
     </row>
     <row r="2" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="107"/>
+      <c r="A2" s="117"/>
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
@@ -19062,16 +19056,1861 @@
       <c r="B11" s="9"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>12</v>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22">
+        <v>10</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="2"/>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
         <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="16">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="16">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="22">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="16">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="22">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="16">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="22">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="16">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="22">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="16">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="16">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="11">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="22">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="16">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="11">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="11">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="11">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="11">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="11">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="11">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="22">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="16">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="11">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="11">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="11">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="11">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="11">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="11">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="11">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="22">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="16">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="11">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="11">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="11">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="11">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="22">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="16">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="11">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="11">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="11">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="16">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="11">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="11">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="11">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="11">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="11">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="22">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="16">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="11">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="11">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="11">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="11">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="11">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="11">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="22">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="16">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="11">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="11">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="11">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="22">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="16">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="11">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="11">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="11">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="11">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="11">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="11">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="22">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="16">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="11">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="11">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="11">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="11">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="11">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="11">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="11">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="11">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="11">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="11">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="11">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="11">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="22">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="16">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="11">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="11">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="11">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="11">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="11">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="11">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="22">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="16">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="11">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="11">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="11">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="11">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="11">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="11">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="11">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="11">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="22">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="16">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="11">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="11">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="11">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="11">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="11">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="11">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="11">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="11">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="22">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="16">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="11">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="11">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="11">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="11">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="11">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="11">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="11">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="16">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="11">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="11">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="11">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="11">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="11">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="11">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="11">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="11">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="22">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="16">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="11">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="11">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="11">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="11">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="11">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="11">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="11">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="11">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="22">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="16">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="11">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="11">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="11">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="11">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="11">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="11">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="11">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="11">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="22">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="16">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="11">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="11">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="11">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="11">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="11">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="11">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="11">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="22">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="16">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="11">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="11">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="11">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="11">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="11">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="11">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="11">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="22">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="16">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="11">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="11">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="11">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="11">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="11">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="11">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="11">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="22">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="16">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="11">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="11">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="11">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="11">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="11">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" s="11">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" s="11">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="11">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="22">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" s="16">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" s="11">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" s="11">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" s="11">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" s="11">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" s="11">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" s="11">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" s="11">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" s="11">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" s="22">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -19098,20 +20937,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="75"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="85"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>9</v>
@@ -19120,7 +20959,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>9</v>
@@ -19161,41 +21000,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="C1" s="120"/>
+      <c r="D1" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111" t="s">
+      <c r="E1" s="122"/>
+      <c r="F1" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="109" t="s">
+      <c r="G1" s="122"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="124"/>
+      <c r="B2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="112"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="114"/>
-      <c r="B2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>18</v>
-      </c>
       <c r="F2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
